--- a/biology/Biochimie/PHLPP/PHLPP.xlsx
+++ b/biology/Biochimie/PHLPP/PHLPP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les PHLPP (de l'anglais : PH domain and Leucine rich repeat Protein Phosphatase) sont une famille de protéines  de type phosphatase, permettant l'inactivation des protéine Akt.
 Cette famille est composée de trois isoformes : PHLPP1α, PHLPP1β (issu du même gène PHLPP1 mais épissée différemment) et PHLPP2.
@@ -512,10 +524,12 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En inactivant les Akt, les PHLPP stimulent l'apoptose et inhibent la croissance des cancers[1]. Le PHLPP1 agit sur l'Akt2 et le PHLPP2 sur l'Akt3[2].
-Elles facilitent également la dégradation de la protéine kinase C en la déphsophorylant[3]. Par le même mécanisme, elle inhibe le S6K1, diminuant la croissance cellulaire[4]. Elle active le Mst1 (en), facilitant, par cette autre voie, l'apoptose[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En inactivant les Akt, les PHLPP stimulent l'apoptose et inhibent la croissance des cancers. Le PHLPP1 agit sur l'Akt2 et le PHLPP2 sur l'Akt3.
+Elles facilitent également la dégradation de la protéine kinase C en la déphsophorylant. Par le même mécanisme, elle inhibe le S6K1, diminuant la croissance cellulaire. Elle active le Mst1 (en), facilitant, par cette autre voie, l'apoptose.
 </t>
         </is>
       </c>
